--- a/PLR_do/bubble_data/bubble_data5.xlsx
+++ b/PLR_do/bubble_data/bubble_data5.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miaosilin\Desktop\Population_land_realestate\PLR_do\bubble_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E019999D-F9CD-42D0-AAB8-A2A95CC82743}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D2CA012-68DB-42DD-8457-473236294C80}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -471,7 +471,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D19"/>
+      <selection activeCell="E2" sqref="E2:E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -498,16 +498,16 @@
         <v>5</v>
       </c>
       <c r="B2" s="2">
-        <v>0.88600000000000001</v>
+        <v>0.96199999999999997</v>
       </c>
       <c r="C2" s="2">
-        <v>0.29699999999999999</v>
+        <v>0.17699999999999999</v>
       </c>
       <c r="D2" s="2">
-        <v>0.51400000000000001</v>
+        <v>0.41299999999999998</v>
       </c>
       <c r="E2" s="2" t="str">
-        <f t="shared" ref="E2:E19" si="0">IF(AND(B2&gt;0.9,C2&gt;0.4),"1",IF(AND(B2&gt;0.9,C2&lt;0.4),"2",IF(AND(B2&lt;0.9,C2&lt;0.4),"3","4")))</f>
+        <f>IF(AND(B2&gt;0.8,C2&gt;0.5),"1",IF(AND(B2&gt;0.8,C2&gt;0.3),"2",IF(AND(B2&gt;0.8,C2&lt;0.3),"3","4")))</f>
         <v>3</v>
       </c>
     </row>
@@ -516,17 +516,17 @@
         <v>6</v>
       </c>
       <c r="B3" s="2">
-        <v>0.92500000000000004</v>
+        <v>0.94499999999999995</v>
       </c>
       <c r="C3" s="2">
-        <v>0.32700000000000001</v>
+        <v>0.21</v>
       </c>
       <c r="D3" s="2">
-        <v>0.55000000000000004</v>
+        <v>0.44600000000000001</v>
       </c>
       <c r="E3" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f t="shared" ref="E3:E19" si="0">IF(AND(B3&gt;0.8,C3&gt;0.5),"1",IF(AND(B3&gt;0.8,C3&gt;0.3),"2",IF(AND(B3&gt;0.8,C3&lt;0.3),"3","4")))</f>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -534,13 +534,13 @@
         <v>7</v>
       </c>
       <c r="B4" s="2">
-        <v>0.85899999999999999</v>
+        <v>1</v>
       </c>
       <c r="C4" s="2">
-        <v>0.33100000000000002</v>
+        <v>0.19500000000000001</v>
       </c>
       <c r="D4" s="2">
-        <v>0.53300000000000003</v>
+        <v>0.442</v>
       </c>
       <c r="E4" s="2" t="str">
         <f t="shared" si="0"/>
@@ -552,13 +552,13 @@
         <v>8</v>
       </c>
       <c r="B5" s="2">
-        <v>0.63100000000000001</v>
+        <v>0.96699999999999997</v>
       </c>
       <c r="C5" s="2">
-        <v>0.247</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="D5" s="2">
-        <v>0.39500000000000002</v>
+        <v>0.26800000000000002</v>
       </c>
       <c r="E5" s="2" t="str">
         <f t="shared" si="0"/>
@@ -570,13 +570,13 @@
         <v>9</v>
       </c>
       <c r="B6" s="2">
-        <v>0.50600000000000001</v>
+        <v>0.92200000000000004</v>
       </c>
       <c r="C6" s="2">
-        <v>0.23</v>
+        <v>4.9000000000000002E-2</v>
       </c>
       <c r="D6" s="2">
-        <v>0.34100000000000003</v>
+        <v>0.21299999999999999</v>
       </c>
       <c r="E6" s="2" t="str">
         <f t="shared" si="0"/>
@@ -588,13 +588,13 @@
         <v>10</v>
       </c>
       <c r="B7" s="2">
-        <v>0.88200000000000001</v>
+        <v>0.99399999999999999</v>
       </c>
       <c r="C7" s="2">
-        <v>0.3</v>
+        <v>0.14299999999999999</v>
       </c>
       <c r="D7" s="2">
-        <v>0.51400000000000001</v>
+        <v>0.377</v>
       </c>
       <c r="E7" s="2" t="str">
         <f t="shared" si="0"/>
@@ -606,13 +606,13 @@
         <v>11</v>
       </c>
       <c r="B8" s="2">
-        <v>0.78500000000000003</v>
+        <v>0.92300000000000004</v>
       </c>
       <c r="C8" s="2">
-        <v>0.27400000000000002</v>
+        <v>0.106</v>
       </c>
       <c r="D8" s="2">
-        <v>0.46400000000000002</v>
+        <v>0.313</v>
       </c>
       <c r="E8" s="2" t="str">
         <f t="shared" si="0"/>
@@ -624,13 +624,13 @@
         <v>12</v>
       </c>
       <c r="B9" s="2">
-        <v>0.63600000000000001</v>
+        <v>0.98699999999999999</v>
       </c>
       <c r="C9" s="2">
-        <v>0.21199999999999999</v>
+        <v>4.9000000000000002E-2</v>
       </c>
       <c r="D9" s="2">
-        <v>0.36699999999999999</v>
+        <v>0.219</v>
       </c>
       <c r="E9" s="2" t="str">
         <f t="shared" si="0"/>
@@ -642,13 +642,13 @@
         <v>13</v>
       </c>
       <c r="B10" s="2">
-        <v>0.621</v>
+        <v>0.96899999999999997</v>
       </c>
       <c r="C10" s="2">
-        <v>0.24199999999999999</v>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="D10" s="2">
-        <v>0.38800000000000001</v>
+        <v>0.249</v>
       </c>
       <c r="E10" s="2" t="str">
         <f t="shared" si="0"/>
@@ -660,13 +660,13 @@
         <v>14</v>
       </c>
       <c r="B11" s="2">
-        <v>0.60299999999999998</v>
+        <v>0.90700000000000003</v>
       </c>
       <c r="C11" s="2">
-        <v>0.22</v>
+        <v>5.6000000000000001E-2</v>
       </c>
       <c r="D11" s="2">
-        <v>0.36399999999999999</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="E11" s="2" t="str">
         <f t="shared" si="0"/>
@@ -678,13 +678,13 @@
         <v>15</v>
       </c>
       <c r="B12" s="2">
-        <v>0.77300000000000002</v>
+        <v>0.96899999999999997</v>
       </c>
       <c r="C12" s="2">
-        <v>0.26100000000000001</v>
+        <v>0.113</v>
       </c>
       <c r="D12" s="2">
-        <v>0.44900000000000001</v>
+        <v>0.33</v>
       </c>
       <c r="E12" s="2" t="str">
         <f t="shared" si="0"/>
@@ -696,13 +696,13 @@
         <v>16</v>
       </c>
       <c r="B13" s="2">
-        <v>0.66500000000000004</v>
+        <v>0.97799999999999998</v>
       </c>
       <c r="C13" s="2">
-        <v>0.22900000000000001</v>
+        <v>5.6000000000000001E-2</v>
       </c>
       <c r="D13" s="2">
-        <v>0.39</v>
+        <v>0.23400000000000001</v>
       </c>
       <c r="E13" s="2" t="str">
         <f t="shared" si="0"/>
@@ -714,13 +714,13 @@
         <v>17</v>
       </c>
       <c r="B14" s="2">
-        <v>0.44900000000000001</v>
+        <v>0.91</v>
       </c>
       <c r="C14" s="2">
-        <v>0.22500000000000001</v>
+        <v>3.9E-2</v>
       </c>
       <c r="D14" s="2">
-        <v>0.318</v>
+        <v>0.189</v>
       </c>
       <c r="E14" s="2" t="str">
         <f t="shared" si="0"/>
@@ -732,13 +732,13 @@
         <v>18</v>
       </c>
       <c r="B15" s="2">
-        <v>0.55000000000000004</v>
+        <v>0.90100000000000002</v>
       </c>
       <c r="C15" s="2">
-        <v>0.23899999999999999</v>
+        <v>6.7000000000000004E-2</v>
       </c>
       <c r="D15" s="2">
-        <v>0.36199999999999999</v>
+        <v>0.245</v>
       </c>
       <c r="E15" s="2" t="str">
         <f t="shared" si="0"/>
@@ -750,13 +750,13 @@
         <v>19</v>
       </c>
       <c r="B16" s="2">
-        <v>0.84099999999999997</v>
+        <v>0.998</v>
       </c>
       <c r="C16" s="2">
-        <v>0.27400000000000002</v>
+        <v>0.115</v>
       </c>
       <c r="D16" s="2">
-        <v>0.48</v>
+        <v>0.33900000000000002</v>
       </c>
       <c r="E16" s="2" t="str">
         <f t="shared" si="0"/>
@@ -768,17 +768,17 @@
         <v>20</v>
       </c>
       <c r="B17" s="2">
-        <v>0.42599999999999999</v>
+        <v>0.78400000000000003</v>
       </c>
       <c r="C17" s="2">
-        <v>0.21099999999999999</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="D17" s="2">
-        <v>0.29899999999999999</v>
+        <v>0.18099999999999999</v>
       </c>
       <c r="E17" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -786,13 +786,13 @@
         <v>21</v>
       </c>
       <c r="B18" s="2">
-        <v>0.65</v>
+        <v>0.93799999999999994</v>
       </c>
       <c r="C18" s="2">
-        <v>0.23</v>
+        <v>6.9000000000000006E-2</v>
       </c>
       <c r="D18" s="2">
-        <v>0.38700000000000001</v>
+        <v>0.254</v>
       </c>
       <c r="E18" s="2" t="str">
         <f t="shared" si="0"/>
@@ -804,13 +804,13 @@
         <v>22</v>
       </c>
       <c r="B19" s="2">
-        <v>0.69199999999999995</v>
+        <v>0.92800000000000005</v>
       </c>
       <c r="C19" s="2">
-        <v>0.253</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="D19" s="2">
-        <v>0.41799999999999998</v>
+        <v>0.29199999999999998</v>
       </c>
       <c r="E19" s="2" t="str">
         <f t="shared" si="0"/>
